--- a/Data/OtherTemplates/POSCPD_WorkLog.xlsx
+++ b/Data/OtherTemplates/POSCPD_WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\AA VISA PROCESS\VISA POS CPD SETTLEMENT\Data\OtherTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A623D6-C22D-46F3-82D2-3660A5CCD838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA677CCC-B5DF-4133-B7C9-2CAE9285FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{075AD9F0-B0C3-48B0-8B56-034DFAC0293F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="8" xr2:uid="{075AD9F0-B0C3-48B0-8B56-034DFAC0293F}"/>
   </bookViews>
   <sheets>
     <sheet name="Issuer Visa Dr" sheetId="1" r:id="rId1"/>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE80D6C-EDAF-4EFB-BCB9-036AAF8DFD31}">
   <dimension ref="A1:DQ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CX1" workbookViewId="0">
-      <selection activeCell="DE14" sqref="DE14"/>
+    <sheetView topLeftCell="CX1" workbookViewId="0">
+      <selection activeCell="DB13" sqref="DB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5653,7 +5653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37901335-4484-40E0-9F27-EFD4780D1458}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
